--- a/Computacion/PARCIAL 2/DATOS.xlsx
+++ b/Computacion/PARCIAL 2/DATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\UAI-Cuatrimestre2\Computacion\PARCIAL 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7484C850-3709-49DE-987F-D99EE264E904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75E0DD-1D29-40E3-AFFE-8F52014A2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{40D435CB-E099-49D9-92B8-F0D22B2D0C3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40D435CB-E099-49D9-92B8-F0D22B2D0C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -733,7 +733,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +748,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -893,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,21 +979,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1304,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F592B36-86CC-46E7-9F34-F61E4C57FC70}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -2010,7 +2029,7 @@
       <c r="S15" s="9"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>160</v>
       </c>
@@ -2047,14 +2066,14 @@
       <c r="L16" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="19"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="35"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
